--- a/zvnl-9697.xlsx
+++ b/zvnl-9697.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0D6518-65F2-4CEE-97E9-5F530DC3CA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B981587D-037D-42C0-A313-2E4D95530564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="5797" windowWidth="15247" windowHeight="11648" xr2:uid="{0F794ACE-90AD-42D1-B7AE-7643A8A1DCCD}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15247" windowHeight="11647" xr2:uid="{0F794ACE-90AD-42D1-B7AE-7643A8A1DCCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Naam</t>
   </si>
@@ -132,6 +132,15 @@
 [n] 2723 &lt;?
 Tabel 28b:
 [x] 5226</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>43568 Ehv</t>
+  </si>
+  <si>
+    <t>Geen</t>
   </si>
 </sst>
 </file>
@@ -187,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -199,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -515,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79279987-921F-4756-9C2D-CB9DC226B158}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -537,6 +547,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -580,19 +593,27 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -603,33 +624,38 @@
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>

--- a/zvnl-9697.xlsx
+++ b/zvnl-9697.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B981587D-037D-42C0-A313-2E4D95530564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D751DD58-06EA-4BFE-AAB0-55664B217D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="15247" windowHeight="11647" xr2:uid="{0F794ACE-90AD-42D1-B7AE-7643A8A1DCCD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Naam</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Altijd-rood</t>
-  </si>
-  <si>
-    <t>Koersborden</t>
   </si>
   <si>
     <t>Scenario script (WX)</t>
@@ -141,6 +138,12 @@
   </si>
   <si>
     <t>Geen</t>
+  </si>
+  <si>
+    <t>nvt</t>
+  </si>
+  <si>
+    <t>Koersborden/Loknrs</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -540,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -548,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -556,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
@@ -564,31 +567,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -604,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -612,13 +615,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
@@ -636,28 +642,40 @@
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/zvnl-9697.xlsx
+++ b/zvnl-9697.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D751DD58-06EA-4BFE-AAB0-55664B217D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4D764-7751-45B9-BA9F-6C901AC2E525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15247" windowHeight="11647" xr2:uid="{0F794ACE-90AD-42D1-B7AE-7643A8A1DCCD}"/>
+    <workbookView xWindow="1702" yWindow="2475" windowWidth="15248" windowHeight="11648" xr2:uid="{0F794ACE-90AD-42D1-B7AE-7643A8A1DCCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -102,48 +102,48 @@
 [x] 5226</t>
   </si>
   <si>
+    <t>Tabel 25a*:
+[x] 923 &gt;?
+Tabel 25b:
+[x] 9626
+[x] 3526
+[n] 6424 &gt;?</t>
+  </si>
+  <si>
+    <t>Tabel 28a*:
+[x] 5221
+[n] 2723 &lt;?
+Tabel 28b:
+[x] 5226</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>43568 Ehv</t>
+  </si>
+  <si>
+    <t>Geen</t>
+  </si>
+  <si>
+    <t>nvt</t>
+  </si>
+  <si>
+    <t>Koersborden/Loknrs</t>
+  </si>
+  <si>
     <t>Tabel 24a*:
 [x] 5221
 [x] 9621
 [x] 923 &gt;?
 Tabel 24b:
 [x] 5224
-[x] 3524 TODO Mat54
+[x] 3524
 [n] 9624
 [x] 924 &lt;?
 [x] 9626
 [x] 5226
-[x] 3526 TODO Mat54</t>
-  </si>
-  <si>
-    <t>Tabel 25a*:
-[x] 923 &gt;?
-Tabel 25b:
-[x] 9626
-[x] 3526
-[n] 6424 &gt;?</t>
-  </si>
-  <si>
-    <t>Tabel 28a*:
-[x] 5221
-[n] 2723 &lt;?
-Tabel 28b:
-[x] 5226</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>43568 Ehv</t>
-  </si>
-  <si>
-    <t>Geen</t>
-  </si>
-  <si>
-    <t>nvt</t>
-  </si>
-  <si>
-    <t>Koersborden/Loknrs</t>
+[x] 3526</t>
   </si>
 </sst>
 </file>
@@ -167,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +177,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,19 +193,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -528,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79279987-921F-4756-9C2D-CB9DC226B158}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -542,7 +533,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -550,15 +541,15 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -566,116 +557,116 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>20</v>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
